--- a/medicine/Psychotrope/Cyclopia/Cyclopia.xlsx
+++ b/medicine/Psychotrope/Cyclopia/Cyclopia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Honeybush
-Le Honeybush en anglais ou 'Heuningbos' en Afrikaans, parfois en français 'buisson à miel'[1], de son nom scientifique Cyclopia, est un genre de plantes de la famille des Fabaceae habituellement utilisées comme infusion à la manière du thé. Il pousse dans diverses régions méridionales d'Afrique du Sud, et est apparenté au rooibos.
+Le Honeybush en anglais ou 'Heuningbos' en Afrikaans, parfois en français 'buisson à miel', de son nom scientifique Cyclopia, est un genre de plantes de la famille des Fabaceae habituellement utilisées comme infusion à la manière du thé. Il pousse dans diverses régions méridionales d'Afrique du Sud, et est apparenté au rooibos.
 Le Honeybush est ainsi dénommé parce que ses fleurs ont une odeur de miel. Le goût est proche de celui du rooibos, mais en plus doux.
 </t>
         </is>
@@ -513,14 +525,16 @@
           <t>Espèces commercialisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23 espèces de buissons à miel ont été identifiées dans la nature[2] ou 24[3], mais seules 4 ou 5 ont fait l'objet d'une commercialisation. Celles-ci sont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23 espèces de buissons à miel ont été identifiées dans la nature ou 24, mais seules 4 ou 5 ont fait l'objet d'une commercialisation. Celles-ci sont :
 Cyclopia intermedia, connu sous le nom de 'bergtee' (thé de montagne), que l'on peut trouver entre Port Elizabeth et le Langkloof ;
 Cyclopia subternata, connu sous le nom de 'vleitee' (thé de plaine) ou 'valleitee' (thé de vallée)
-Cyclopia genistoides, connu sous le nom de 'kustee' (thé côtier), dans la province du Cap-Occidental à proximité d'Yserfontein et Darling, voire plus au sud où il est cultivé[2] ;
+Cyclopia genistoides, connu sous le nom de 'kustee' (thé côtier), dans la province du Cap-Occidental à proximité d'Yserfontein et Darling, voire plus au sud où il est cultivé ;
 Cyclopia sessiliflora, connu sous le nom de 'Heidelberg-tee' (thé de Heidelberg), dans la zone de montagne à proximité de la ville de Heidelberg, dans la province du Cap-Occidental, en Afrique du Sud ;
-Cyclopia maculata[4], dans les monts Outeniqua à proximité de George[5].</t>
+Cyclopia maculata, dans les monts Outeniqua à proximité de George.</t>
         </is>
       </c>
     </row>
@@ -548,10 +562,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces sont cultivées alors que d'autres n'ont jamais pu faire l'objet de culture et doivent être récoltées dans la nature. Par exemple, Cyclopia intermedia (le thé de montagne) est récolté dans les monts Kouga où il pousse naturellement. Le thé de montagne se régénère en trois années après la récolte ou un incendie. Les récoltes s'y font donc par une rotation triennale[6].
-Le thé de montagne et le thé de vallée fleurissent en septembre / octobre alors que le thé côtier fleurit en mai / juin[7]. S'agissant de l'hémisphère sud, ces floraisons sont donc printanières.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces sont cultivées alors que d'autres n'ont jamais pu faire l'objet de culture et doivent être récoltées dans la nature. Par exemple, Cyclopia intermedia (le thé de montagne) est récolté dans les monts Kouga où il pousse naturellement. Le thé de montagne se régénère en trois années après la récolte ou un incendie. Les récoltes s'y font donc par une rotation triennale.
+Le thé de montagne et le thé de vallée fleurissent en septembre / octobre alors que le thé côtier fleurit en mai / juin. S'agissant de l'hémisphère sud, ces floraisons sont donc printanières.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Traitement des feuilles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il y a deux méthodes pour conditionner le buisson à miel pour une utilisation comme thé. Dans la méthode traditionnelle, les feuilles des arbustes sont récoltées, brisées (généralement par rouleau mécanique), et puis mises à sécher au soleil pour oxydation. 
 La méthode moderne effectue l'oxydation en mettant les feuilles dans des cuves rotatives chauffées de 70 à 90 degrés Celsius, pendant deux à trois jours. Les feuilles sont ensuite séchées. 
@@ -615,7 +633,9 @@
           <t>Composants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le Honeybush est pauvre en tanin (0,45 %). Parmi les principes actifs du Honeybush figurent :
 Isoflavones
@@ -650,9 +670,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (8 juin 2013)[8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 juin 2013) :
 Cyclopia aurescens
 Cyclopia bolusii
 Cyclopia bowieana
@@ -672,7 +694,7 @@
 Cyclopia plicata
 Cyclopia pubescens
 Cyclopia sessiliflora
-Selon NCBI  (8 juin 2013)[9] :
+Selon NCBI  (8 juin 2013) :
 Cyclopia alopecuroides
 Cyclopia alpina
 Cyclopia aurescens
@@ -690,7 +712,7 @@
 Cyclopia pubescens
 Cyclopia sessiliflora
 Cyclopia subternata
-Selon Tropicos                                           (8 juin 2013)[10] (attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 juin 2013) (attention liste brute contenant possiblement des synonymes) :
 Cyclopia alopecuroides A.L. Schutte
 Cyclopia alpina A.L. Schutte
 Cyclopia ashtonii Hofmeyr &amp; E. Phillips
